--- a/TestPurchase.xlsx
+++ b/TestPurchase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\UiPath\PWC-Purchases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandrakolosova/Documents/UiPath/PWC-Purchases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1CBE7A5-ABDB-415E-90B4-07B3158229F3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F0E95B-3420-4545-9A1C-7690BAEB0C33}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9218" xr2:uid="{CC834EF1-42AA-4737-8420-7857FAEAC985}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CC834EF1-42AA-4737-8420-7857FAEAC985}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -109,6 +109,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B28B4FB-BBC7-D045-B35F-E7230DBD5408}" name="inputTable" displayName="inputTable" ref="A1:D5" totalsRowShown="0">
+  <autoFilter ref="A1:D5" xr:uid="{2CF5A8DC-AC4C-E14B-B97B-3682ABB8D0C9}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{CB90E174-EB76-1A47-B6ED-7D41E9877BAA}" name="Название компании"/>
+    <tableColumn id="2" xr3:uid="{947CB5CA-65A2-604A-89D8-961448960722}" name="ИНН"/>
+    <tableColumn id="3" xr3:uid="{560D7EDF-F674-144D-A52F-C8FCBEB9115C}" name="Начало периода"/>
+    <tableColumn id="4" xr3:uid="{D15D23CD-5BBD-CD4C-8CC4-520F01A01254}" name="Окончание периода"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,18 +424,18 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.9296875" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.3984375" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -450,7 +463,7 @@
         <v>43655</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -464,7 +477,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -472,7 +485,7 @@
         <v>105020580</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -482,5 +495,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>